--- a/Dragonfall/gameData/shared/ScheduleActivities.xlsx
+++ b/Dragonfall/gameData/shared/ScheduleActivities.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-27140" yWindow="2980" windowWidth="25600" windowHeight="16060" tabRatio="214"/>
+    <workbookView xWindow="-26100" yWindow="2960" windowWidth="25600" windowHeight="16060" tabRatio="214"/>
   </bookViews>
   <sheets>
     <sheet name="type" sheetId="24" r:id="rId1"/>
@@ -76,46 +76,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>collectOneWood</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>collectOneStone</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>collectOneIron</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>collectOneFood</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>collectOneCoin</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>robOneWood</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>robOneStone</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>robOneIron</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>robOneFood</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>robOneCoin</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>attackPve_1_4</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -609,6 +569,46 @@
   </si>
   <si>
     <t>INT_scoreIndex5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>collectOne_wood</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>collectOne_stone</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>collectOne_iron</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>collectOne_food</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>collectOne_coin</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>robOne_wood</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>robOne_stone</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>robOne_iron</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>robOne_food</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>robOne_coin</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -753,7 +753,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="744">
+  <cellStyleXfs count="750">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -768,6 +768,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1542,7 +1548,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="744">
+  <cellStyles count="750">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1917,6 +1923,9 @@
     <cellStyle name="超链接" xfId="738" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="740" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="742" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="744" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="746" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="748" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2284,6 +2293,9 @@
     <cellStyle name="访问过的超链接" xfId="739" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="741" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="743" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="745" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="747" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="749" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2735,8 +2747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE75"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A5" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2763,97 +2775,97 @@
   <sheetData>
     <row r="1" spans="1:31" s="8" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="8" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="K1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="V1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="W1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="X1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="Y1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Z1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="AA1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="AB1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="AC1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="AD1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="AE1" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="V1" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="W1" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="X1" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y1" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z1" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA1" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB1" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC1" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD1" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE1" s="9" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="114" customHeight="1">
@@ -2861,13 +2873,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C2" s="10">
-        <v>48</v>
-      </c>
-      <c r="D2" s="5">
-        <v>48</v>
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
       </c>
       <c r="E2" s="5">
         <v>100</v>
@@ -2888,19 +2900,19 @@
         <v>100</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="P2" s="7">
         <v>1</v>
@@ -2927,28 +2939,28 @@
         <v>76</v>
       </c>
       <c r="X2" s="7" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Y2" s="7" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="Z2" s="7" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="AA2" s="7" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="AD2" s="7" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="AE2" s="7" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="114" customHeight="1">
@@ -2956,13 +2968,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C3" s="10">
-        <v>48</v>
-      </c>
-      <c r="D3" s="5">
-        <v>48</v>
+        <v>1</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1</v>
       </c>
       <c r="E3" s="5">
         <v>100</v>
@@ -2983,19 +2995,19 @@
         <v>2000000</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="P3" s="7">
         <v>1</v>
@@ -3022,28 +3034,28 @@
         <v>76</v>
       </c>
       <c r="X3" s="7" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="Y3" s="7" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="Z3" s="7" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="AA3" s="7" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AB3" s="7" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="AC3" s="7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AD3" s="7" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AE3" s="7" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="114" customHeight="1">
@@ -3051,13 +3063,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4" s="12">
-        <v>48</v>
-      </c>
-      <c r="D4" s="6">
-        <v>48</v>
+        <v>123</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1</v>
       </c>
       <c r="E4" s="5">
         <v>100</v>
@@ -3078,19 +3090,19 @@
         <v>1600</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="P4" s="7">
         <v>1</v>
@@ -3117,28 +3129,28 @@
         <v>76</v>
       </c>
       <c r="X4" s="7" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="Y4" s="7" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="Z4" s="7" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="AA4" s="7" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="AB4" s="7" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AC4" s="7" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="AD4" s="7" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="AE4" s="7" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="114" customHeight="1">
@@ -3146,13 +3158,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C5" s="10">
-        <v>48</v>
-      </c>
-      <c r="D5" s="5">
-        <v>48</v>
+        <v>1</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1</v>
       </c>
       <c r="E5" s="5">
         <v>100</v>
@@ -3173,19 +3185,19 @@
         <v>900</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="P5" s="7">
         <v>1</v>
@@ -3212,28 +3224,28 @@
         <v>76</v>
       </c>
       <c r="X5" s="7" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="Y5" s="7" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="Z5" s="7" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="AA5" s="7" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="AB5" s="7" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AC5" s="7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AD5" s="7" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="AE5" s="7" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="114" customHeight="1">
@@ -3241,13 +3253,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C6" s="10">
-        <v>48</v>
-      </c>
-      <c r="D6" s="5">
-        <v>48</v>
+        <v>1</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1</v>
       </c>
       <c r="E6" s="5">
         <v>100</v>
@@ -3268,19 +3280,19 @@
         <v>100000</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="P6" s="7">
         <v>1</v>
@@ -3307,28 +3319,28 @@
         <v>76</v>
       </c>
       <c r="X6" s="7" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Y6" s="7" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="Z6" s="7" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="AA6" s="7" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="AB6" s="7" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AC6" s="7" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="AD6" s="7" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="AE6" s="7" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:31" ht="114" customHeight="1">
@@ -3336,13 +3348,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7" s="12">
-        <v>48</v>
-      </c>
-      <c r="D7" s="6">
-        <v>48</v>
+        <v>126</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1</v>
       </c>
       <c r="E7" s="5">
         <v>100</v>
@@ -3363,19 +3375,19 @@
         <v>100000</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="P7" s="7">
         <v>1</v>
@@ -3402,28 +3414,28 @@
         <v>76</v>
       </c>
       <c r="X7" s="7" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="Y7" s="7" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="Z7" s="7" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="AA7" s="7" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="AB7" s="7" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="AC7" s="7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="AD7" s="7" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="AE7" s="7" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="20" customHeight="1">
@@ -3783,7 +3795,7 @@
   <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3821,7 +3833,7 @@
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="B4" s="6">
         <v>1</v>
@@ -3829,7 +3841,7 @@
     </row>
     <row r="5" spans="1:4" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="B5" s="5">
         <v>1</v>
@@ -3837,7 +3849,7 @@
     </row>
     <row r="6" spans="1:4" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="B6" s="5">
         <v>1</v>
@@ -3845,7 +3857,7 @@
     </row>
     <row r="7" spans="1:4" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="B7" s="6">
         <v>1</v>
@@ -3853,7 +3865,7 @@
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c r="B8" s="6">
         <v>2</v>
@@ -3861,7 +3873,7 @@
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="B9" s="6">
         <v>5</v>
@@ -3869,7 +3881,7 @@
     </row>
     <row r="10" spans="1:4" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>141</v>
       </c>
       <c r="B10" s="6">
         <v>5</v>
@@ -3877,7 +3889,7 @@
     </row>
     <row r="11" spans="1:4" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="B11" s="5">
         <v>5</v>
@@ -3885,7 +3897,7 @@
     </row>
     <row r="12" spans="1:4" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>143</v>
       </c>
       <c r="B12" s="5">
         <v>5</v>
@@ -3893,7 +3905,7 @@
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="B13" s="5">
         <v>8</v>
@@ -3901,7 +3913,7 @@
     </row>
     <row r="14" spans="1:4" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B14" s="6">
         <v>1</v>
@@ -3909,7 +3921,7 @@
     </row>
     <row r="15" spans="1:4" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B15" s="5">
         <v>2</v>
@@ -3917,7 +3929,7 @@
     </row>
     <row r="16" spans="1:4" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B16" s="5">
         <v>5</v>
@@ -3925,7 +3937,7 @@
     </row>
     <row r="17" spans="1:2" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B17" s="5">
         <v>8</v>
@@ -3933,7 +3945,7 @@
     </row>
     <row r="18" spans="1:2" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B18" s="6">
         <v>16</v>
@@ -3941,7 +3953,7 @@
     </row>
     <row r="19" spans="1:2" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B19" s="6">
         <v>24</v>
@@ -3949,7 +3961,7 @@
     </row>
     <row r="20" spans="1:2" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B20" s="6">
         <v>2</v>
@@ -3957,7 +3969,7 @@
     </row>
     <row r="21" spans="1:2" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B21" s="5">
         <v>4</v>
@@ -3965,7 +3977,7 @@
     </row>
     <row r="22" spans="1:2" ht="20" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B22" s="5">
         <v>8</v>
@@ -3973,7 +3985,7 @@
     </row>
     <row r="23" spans="1:2" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B23" s="5">
         <v>15</v>
@@ -3981,7 +3993,7 @@
     </row>
     <row r="24" spans="1:2" ht="20" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B24" s="6">
         <v>24</v>
@@ -3989,7 +4001,7 @@
     </row>
     <row r="25" spans="1:2" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B25" s="5">
         <v>1</v>
@@ -3997,7 +4009,7 @@
     </row>
     <row r="26" spans="1:2" ht="20" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B26" s="5">
         <v>1</v>
@@ -4005,7 +4017,7 @@
     </row>
     <row r="27" spans="1:2" ht="20" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B27" s="5">
         <v>2</v>
@@ -4013,7 +4025,7 @@
     </row>
     <row r="28" spans="1:2" ht="20" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B28" s="6">
         <v>3</v>
@@ -4021,7 +4033,7 @@
     </row>
     <row r="29" spans="1:2" ht="20" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B29" s="6">
         <v>6</v>
@@ -4029,7 +4041,7 @@
     </row>
     <row r="30" spans="1:2" ht="20" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B30" s="6">
         <v>7</v>
@@ -4037,7 +4049,7 @@
     </row>
     <row r="31" spans="1:2" ht="20" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B31" s="6">
         <v>14</v>

--- a/Dragonfall/gameData/shared/ScheduleActivities.xlsx
+++ b/Dragonfall/gameData/shared/ScheduleActivities.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-26100" yWindow="2960" windowWidth="25600" windowHeight="16060" tabRatio="214"/>
+    <workbookView xWindow="60" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="214"/>
   </bookViews>
   <sheets>
     <sheet name="type" sheetId="24" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="151">
   <si>
     <t>gacha</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -228,47 +228,371 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>items:casinoTokenClass_1:1,items:sweepScroll:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonExp_1:1,items:chest_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:chest_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:heroBlood_2:1,items:chest_4:2,items:troopSizeBonus_2:3,items:masterOfDefender_2:3,items:quarterMaster_2:3,items:fogOfTrick_2:3,items:coinClass_7:1,items:gemClass_3:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:heroBlood_2:1,items:chest_4:1,items:troopSizeBonus_2:1,items:masterOfDefender_2:1,items:quarterMaster_2:1,items:gemClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:chest_4:1,items:troopSizeBonus_2:1,items:quarterMaster_2:1,items:speedup_2:20,items:gemClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:chest_3:1,items:quarterMaster_2:1,items:speedup_2:20,items:gemClass_2:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:gemClass_2:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonChest_2:2,items:vipPoint_1:1,items:gemClass_1:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_desc</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>游乐场赛季</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源掠夺赛季</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒险家赛季</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑龙军团赛季</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀戮之王赛季</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>军备竞赛赛季</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_expireHours</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_type</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_maxRank</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>collectOne_wood</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>collectOne_stone</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>collectOne_iron</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>collectOne_food</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>collectOne_coin</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>robOne_wood</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>robOne_stone</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>robOne_iron</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>robOne_food</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>robOne_coin</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:gemClass_2:1,items:casinoTokenClass_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:gemClass_2:1,items:casinoTokenClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:gemClass_2:2,items:casinoTokenClass_2:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:gemClass_2:2,items:casinoTokenClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:gemClass_2:5,items:casinoTokenClass_3:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:gemClass_2:1,items:chest_1:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:chest_4:1,items:dragonExp_1:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:chest_3:1,items:movingConstruction:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:coinClass_5:2,items:warSpeedupClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:heroBlood_1:2,items:gemClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:chest_1:2,items:speedup_2:30</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:chest_2:1,items:speedup_2:50</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:chest_3:1,items:speedup_3:20</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:chest_4:1,items:speedup_4:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:casinoTokenClass_1:1,items:sweepScroll:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:chest_1:2,items:warSpeedupClass_1:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:chest_2:1,items:masterOfDefender_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:chest_3:1,items:marchSpeedBonus_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:chest_4:1,items:troopSizeBonus_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:coinClass_5:1,items:speedup_4:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:vipPoint_1:1,items:unitHpBonus_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonHp_2:1,items:troopSizeBonus_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:gemClass_2:1,items:vipActive_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:moveTheCity:1,items:vipPoint_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:coinClass_4:1,items:sweepScroll:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:coinClass_5:1,items:dragonHp_1:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:coinClass_5:1,items:marchSpeedBonus_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:coinClass_5:2,items:troopSizeBonus_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:coinClass_6:1,items:gemClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>STR_rankRewards8</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>items:casinoTokenClass_1:1,items:sweepScroll:5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:chest_1:2,items:warSpeedupClass_1:3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:chest_2:2,items:masterOfDefender_1:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:chest_3:2,items:marchSpeedBonus_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:chest_4:2,items:troopSizeBonus_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:dragonChest_3:5,items:coinClass_6:2,items:vipPoint_2:2,items:vipActive_3:5,items:unitHpBonus_2:1,items:marchSpeedBonus_2:1,items:speedup_4:5,items:gemClass_3:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:dragonChest_3:3,items:coinClass_6:1,items:vipPoint_1:5,items:vipActive_3:3,items:dragonExp_1:5,items:stamina_2:5,items:gemClass_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:dragonChest_3:2,items:coinClass_5:2,items:vipPoint_1:4,items:vipActive_3:2,items:stamina_2:2,items:gemClass_2:5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:dragonChest_2:4,items:coinClass_5:2,items:vipPoint_1:2,items:quarterMaster_2:1,items:gemClass_2:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:dragonChest_2:4,items:coinClass_5:2,items:vipPoint_1:2,items:quarterMaster_2:1,items:gemClass_2:2</t>
+    <t>items:dragonChest_3:5,items:coinClass_6:1,items:vipPoint_2:1,items:vipActive_3:2,items:unitHpBonus_2:1,items:marchSpeedBonus_2:1,items:speedup_4:2,items:gemClass_3:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonChest_3:3,items:coinClass_6:1,items:vipPoint_1:2,items:vipActive_3:2,items:dragonExp_1:5,items:stamina_2:5,items:gemClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonChest_3:3,items:coinClass_5:2,items:vipPoint_1:2,items:vipActive_3:2,items:stamina_2:2,items:gemClass_2:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonChest_2:5,items:coinClass_5:2,items:vipPoint_1:2,items:quarterMaster_2:1,items:gemClass_2:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonChest_2:3,items:marchSpeedBonus_1:2,items:unitHpBonus_1:2,items:gemClass_2:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonChest_2:2,items:vipPoint_1:2,items:gemClass_1:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonChest_2:1,items:gemClass_1:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonChest_2:1,items:gemClass_1:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:marchSpeedBonus_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonExp_3:1,items:chest_4:2,items:masterOfDefender_2:2,items:infantryAtkBonus_2:2,items:archerAtkBonus_2:2,items:cavalryAtkBonus_2:2,items:siegeAtkBonus_2:2,items:gemClass_3:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonExp_3:1,items:chest_4:1,items:infantryAtkBonus_2:2,items:archerAtkBonus_2:2,items:cavalryAtkBonus_2:2,items:siegeAtkBonus_2:2,items:gemClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonExp_2:2,items:chest_4:1,items:dragonHp_2:5,items:infantryAtkBonus_2:2,items:archerAtkBonus_2:2,items:gemClass_2:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonExp_2:1,items:chest_3:2,items:infantryAtkBonus_2:1,items:archerAtkBonus_2:1,items:gemClass_2:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonExp_2:1,items:chest_3:1,items:coinClass_5:1,items:gemClass_2:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonExp_1:1,items:chest_3:2,items:gemClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:heroBlood_2:1,items:chest_4:2,items:troopSizeBonus_2:3,items:masterOfDefender_2:3,items:quarterMaster_2:3,items:fogOfTrick_2:3,items:coinClass_7:1,items:gemClass_3:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:heroBlood_2:1,items:chest_4:2,items:troopSizeBonus_2:1,items:masterOfDefender_2:1,items:quarterMaster_2:1,items:coinClass_6:2,items:gemClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:heroBlood_2:1,items:chest_4:1,items:troopSizeBonus_2:1,items:masterOfDefender_2:1,items:quarterMaster_2:1,items:gemClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:chest_4:1,items:troopSizeBonus_2:1,items:quarterMaster_2:1,items:speedup_2:20,items:gemClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:chest_3:1,items:quarterMaster_2:1,items:speedup_2:20,items:gemClass_2:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:chest_3:1,items:speedup_2:10,items:gemClass_2:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:retreatTroop:20,items:gemClass_2:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:gemClass_2:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonExp_2:2,items:chest_4:1,items:dragonHp_2:1,items:infantryAtkBonus_2:2,items:archerAtkBonus_2:2,items:gemClass_2:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonExp_2:1,items:chest_3:2,items:infantryAtkBonus_2:1,items:archerAtkBonus_2:1,items:gemClass_2:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonExp_2:1,items:chest_3:1,items:coinClass_5:1,items:gemClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonExp_1:1,items:chest_3:1,items:gemClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonExp_1:1,items:chest_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:chest_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonChest_3:5,items:coinClass_6:1,items:vipPoint_2:1,items:vipActive_3:2,items:unitHpBonus_2:1,items:marchSpeedBonus_2:1,items:speedup_4:5,items:gemClass_3:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonChest_3:3,items:coinClass_6:1,items:vipPoint_2:1,items:vipActive_3:3,items:dragonExp_1:5,items:stamina_2:5,items:gemClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonChest_3:3,items:coinClass_5:2,items:vipPoint_2:1,items:vipActive_3:2,items:stamina_2:2,items:gemClass_2:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonChest_2:5,items:coinClass_5:2,items:vipPoint_1:2,items:quarterMaster_2:1,items:gemClass_2:2</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -276,126 +600,14 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>items:dragonChest_2:2,items:vipPoint_1:1,items:gemClass_1:5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:dragonChest_2:1,items:gemClass_1:5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>items:marchSpeedBonus_1:1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>items:gemClass_2:1,items:casinoTokenClass_1:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:gemClass_2:2,items:casinoTokenClass_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:gemClass_2:4,items:casinoTokenClass_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:gemClass_2:6,items:casinoTokenClass_3:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:gemClass_2:10,items:casinoTokenClass_3:4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:dragonExp_3:1,items:chest_4:2,items:masterOfDefender_2:2,items:infantryAtkBonus_2:2,items:archerAtkBonus_2:2,items:cavalryAtkBonus_2:2,items:siegeAtkBonus_2:2,items:gemClass_3:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:dragonExp_3:1,items:chest_4:1,items:infantryAtkBonus_2:2,items:archerAtkBonus_2:2,items:cavalryAtkBonus_2:2,items:siegeAtkBonus_2:2,items:gemClass_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:dragonExp_3:1,items:chest_4:2,items:masterOfDefender_2:2,items:infantryAtkBonus_2:2,items:archerAtkBonus_2:2,items:cavalryAtkBonus_2:2,items:siegeAtkBonus_2:2,items:gemClass_3:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:dragonExp_2:2,items:chest_4:1,items:dragonHp_2:1,items:infantryAtkBonus_2:2,items:archerAtkBonus_2:2,items:gemClass_2:5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:dragonExp_2:1,items:chest_3:2,items:infantryAtkBonus_2:1,items:archerAtkBonus_2:1,items:gemClass_2:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:dragonExp_2:1,items:chest_3:1,items:coinClass_5:1,items:gemClass_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:dragonExp_1:1,items:chest_3:1,items:gemClass_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:dragonExp_1:1,items:chest_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:chest_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:gemClass_2:1,items:chest_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:coinClass_5:1,items:speedup_4:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:dragonHp_2:3,items:troopSizeBonus_2:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:vipPoint_1:2,items:unitHpBonus_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:chest_4:2,items:dragonExp_1:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:heroBlood_2:1,items:chest_4:2,items:troopSizeBonus_2:3,items:masterOfDefender_2:3,items:quarterMaster_2:3,items:fogOfTrick_2:3,items:coinClass_7:1,items:gemClass_3:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:heroBlood_2:1,items:chest_4:2,items:troopSizeBonus_2:3,items:masterOfDefender_2:3,items:quarterMaster_2:3,items:fogOfTrick_2:3,items:coinClass_7:1,items:gemClass_3:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>items:heroBlood_2:1,items:chest_4:2,items:troopSizeBonus_2:1,items:masterOfDefender_2:1,items:quarterMaster_2:1,items:coinClass_6:2,items:gemClass_3:1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>items:heroBlood_2:1,items:chest_4:1,items:troopSizeBonus_2:1,items:masterOfDefender_2:1,items:quarterMaster_2:1,items:gemClass_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:chest_4:1,items:troopSizeBonus_2:1,items:quarterMaster_2:1,items:speedup_2:20,items:gemClass_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:chest_4:1,items:troopSizeBonus_2:1,items:quarterMaster_2:1,items:speedup_2:20,items:gemClass_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:chest_3:1,items:quarterMaster_2:1,items:speedup_2:20,items:gemClass_2:5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:chest_3:1,items:quarterMaster_2:1,items:speedup_2:20,items:gemClass_2:5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>items:chest_3:1,items:speedup_2:10,items:gemClass_2:2</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -404,154 +616,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>items:gemClass_2:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:gemClass_2:1,items:vipActive_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:moveTheCity:1,items:vipPoint_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:chest_3:1,items:movingConstruction:10</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:coinClass_6:1,items:warSpeedupClass_2:4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:heroBlood_1:5,items:gemClass_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:dragonExp_2:1,items:chest_3:2,items:infantryAtkBonus_2:1,items:archerAtkBonus_2:1,items:gemClass_2:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:dragonExp_2:1,items:chest_3:1,items:coinClass_5:1,items:gemClass_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:dragonExp_1:1,items:chest_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:chest_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:coinClass_4:1,items:sweepScroll:5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:coinClass_5:1,items:dragonHp_1:5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:coinClass_6:1,items:marchSpeedBonus_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:coinClass_6:2,items:troopSizeBonus_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:coinClass_7:1,items:gemClass_3:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:dragonChest_3:2,items:coinClass_5:2,items:vipPoint_1:4,items:vipActive_3:2,items:stamina_2:2,items:gemClass_2:5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:dragonChest_2:2,items:vipPoint_1:1,items:gemClass_1:5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:marchSpeedBonus_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:casinoTokenClass_1:1,items:sweepScroll:10</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:chest_1:3,items:speedup_2:30</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:chest_2:3,items:speedup_2:50</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:chest_3:2,items:speedup_3:50</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:chest_4:2,items:speedup_4:10</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:heroBlood_2:1,items:chest_4:2,items:troopSizeBonus_2:1,items:masterOfDefender_2:1,items:quarterMaster_2:1,items:coinClass_6:2,items:gemClass_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:chest_3:1,items:speedup_2:10,items:gemClass_2:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:retreatTroop:20,items:gemClass_2:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:gemClass_2:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_desc</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>游乐场赛季</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源掠夺赛季</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>冒险家赛季</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑龙军团赛季</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>杀戮之王赛季</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>军备竞赛赛季</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_expireHours</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_type</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_maxRank</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_scoreIndex1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -569,46 +633,6 @@
   </si>
   <si>
     <t>INT_scoreIndex5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>collectOne_wood</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>collectOne_stone</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>collectOne_iron</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>collectOne_food</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>collectOne_coin</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>robOne_wood</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>robOne_stone</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>robOne_iron</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>robOne_food</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>robOne_coin</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -753,7 +777,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="750">
+  <cellStyleXfs count="754">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -768,6 +792,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1548,7 +1576,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="750">
+  <cellStyles count="754">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1926,6 +1954,8 @@
     <cellStyle name="超链接" xfId="744" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="746" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="748" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="750" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="752" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2296,6 +2326,8 @@
     <cellStyle name="访问过的超链接" xfId="745" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="747" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="749" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="751" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="753" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2747,8 +2779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE75"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A5" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="D1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2775,34 +2807,34 @@
   <sheetData>
     <row r="1" spans="1:31" s="8" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="8" t="s">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>127</v>
+        <v>65</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>129</v>
+        <v>67</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>29</v>
@@ -2865,7 +2897,7 @@
         <v>48</v>
       </c>
       <c r="AE1" s="9" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="114" customHeight="1">
@@ -2873,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="C2" s="10">
         <v>1</v>
@@ -2900,19 +2932,19 @@
         <v>100</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="P2" s="7">
         <v>1</v>
@@ -2939,28 +2971,28 @@
         <v>76</v>
       </c>
       <c r="X2" s="7" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="Y2" s="7" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="Z2" s="7" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="AA2" s="7" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="AD2" s="7" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="AE2" s="7" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="114" customHeight="1">
@@ -2968,7 +3000,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>122</v>
+        <v>60</v>
       </c>
       <c r="C3" s="10">
         <v>1</v>
@@ -2995,19 +3027,19 @@
         <v>2000000</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="P3" s="7">
         <v>1</v>
@@ -3034,28 +3066,28 @@
         <v>76</v>
       </c>
       <c r="X3" s="7" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="Y3" s="7" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="Z3" s="7" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="AA3" s="7" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="AB3" s="7" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="AC3" s="7" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="AD3" s="7" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="AE3" s="7" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="114" customHeight="1">
@@ -3063,7 +3095,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="C4" s="10">
         <v>1</v>
@@ -3090,19 +3122,19 @@
         <v>1600</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P4" s="7">
         <v>1</v>
@@ -3129,28 +3161,28 @@
         <v>76</v>
       </c>
       <c r="X4" s="7" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="Y4" s="7" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="Z4" s="7" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="AA4" s="7" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="AB4" s="7" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="AC4" s="7" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="AD4" s="7" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="AE4" s="7" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="114" customHeight="1">
@@ -3158,7 +3190,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="C5" s="10">
         <v>1</v>
@@ -3185,19 +3217,19 @@
         <v>900</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="P5" s="7">
         <v>1</v>
@@ -3224,28 +3256,28 @@
         <v>76</v>
       </c>
       <c r="X5" s="7" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="Y5" s="7" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="Z5" s="7" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="AA5" s="7" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="AB5" s="7" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="AC5" s="7" t="s">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AD5" s="7" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="AE5" s="7" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="114" customHeight="1">
@@ -3253,7 +3285,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="C6" s="10">
         <v>1</v>
@@ -3280,19 +3312,19 @@
         <v>100000</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="M6" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="N6" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="O6" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="P6" s="7">
         <v>1</v>
@@ -3319,28 +3351,28 @@
         <v>76</v>
       </c>
       <c r="X6" s="7" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="Y6" s="7" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="Z6" s="7" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="AA6" s="7" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="AB6" s="7" t="s">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="AC6" s="7" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="AD6" s="7" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="AE6" s="7" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:31" ht="114" customHeight="1">
@@ -3348,7 +3380,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c r="C7" s="10">
         <v>1</v>
@@ -3375,19 +3407,19 @@
         <v>100000</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="P7" s="7">
         <v>1</v>
@@ -3414,28 +3446,28 @@
         <v>76</v>
       </c>
       <c r="X7" s="7" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="Y7" s="7" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="Z7" s="7" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="AA7" s="7" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="AB7" s="7" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="AC7" s="7" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="AD7" s="7" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="AE7" s="7" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="20" customHeight="1">
@@ -3795,7 +3827,7 @@
   <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3833,7 +3865,7 @@
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>135</v>
+        <v>68</v>
       </c>
       <c r="B4" s="6">
         <v>1</v>
@@ -3841,7 +3873,7 @@
     </row>
     <row r="5" spans="1:4" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>136</v>
+        <v>69</v>
       </c>
       <c r="B5" s="5">
         <v>1</v>
@@ -3849,7 +3881,7 @@
     </row>
     <row r="6" spans="1:4" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>137</v>
+        <v>70</v>
       </c>
       <c r="B6" s="5">
         <v>1</v>
@@ -3857,7 +3889,7 @@
     </row>
     <row r="7" spans="1:4" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>138</v>
+        <v>71</v>
       </c>
       <c r="B7" s="6">
         <v>1</v>
@@ -3865,7 +3897,7 @@
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>139</v>
+        <v>72</v>
       </c>
       <c r="B8" s="6">
         <v>2</v>
@@ -3873,7 +3905,7 @@
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>140</v>
+        <v>73</v>
       </c>
       <c r="B9" s="6">
         <v>5</v>
@@ -3881,7 +3913,7 @@
     </row>
     <row r="10" spans="1:4" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="B10" s="6">
         <v>5</v>
@@ -3889,7 +3921,7 @@
     </row>
     <row r="11" spans="1:4" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="B11" s="5">
         <v>5</v>
@@ -3897,7 +3929,7 @@
     </row>
     <row r="12" spans="1:4" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="B12" s="5">
         <v>5</v>
@@ -3905,7 +3937,7 @@
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="B13" s="5">
         <v>8</v>

--- a/Dragonfall/gameData/shared/ScheduleActivities.xlsx
+++ b/Dragonfall/gameData/shared/ScheduleActivities.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="214"/>
+    <workbookView xWindow="3000" yWindow="1380" windowWidth="25600" windowHeight="16060" tabRatio="214"/>
   </bookViews>
   <sheets>
     <sheet name="type" sheetId="24" r:id="rId1"/>
@@ -2779,8 +2779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE75"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="D1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A7" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2908,10 +2908,10 @@
         <v>59</v>
       </c>
       <c r="C2" s="10">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="D2" s="10">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="E2" s="5">
         <v>100</v>
@@ -3003,10 +3003,10 @@
         <v>60</v>
       </c>
       <c r="C3" s="10">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="D3" s="10">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="E3" s="5">
         <v>100</v>
@@ -3098,10 +3098,10 @@
         <v>61</v>
       </c>
       <c r="C4" s="10">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="D4" s="10">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="E4" s="5">
         <v>100</v>
@@ -3193,10 +3193,10 @@
         <v>62</v>
       </c>
       <c r="C5" s="10">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="D5" s="10">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="E5" s="5">
         <v>100</v>
@@ -3288,10 +3288,10 @@
         <v>63</v>
       </c>
       <c r="C6" s="10">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="D6" s="10">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="E6" s="5">
         <v>100</v>
@@ -3383,10 +3383,10 @@
         <v>64</v>
       </c>
       <c r="C7" s="10">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="D7" s="10">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="E7" s="5">
         <v>100</v>

--- a/Dragonfall/gameData/shared/ScheduleActivities.xlsx
+++ b/Dragonfall/gameData/shared/ScheduleActivities.xlsx
@@ -4,20 +4,25 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="1380" windowWidth="25600" windowHeight="16060" tabRatio="214"/>
+    <workbookView xWindow="1140" yWindow="760" windowWidth="25600" windowHeight="16060" tabRatio="281" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="type" sheetId="24" r:id="rId1"/>
-    <sheet name="scoreCondition" sheetId="30" r:id="rId2"/>
+    <sheet name="allianceType" sheetId="31" r:id="rId2"/>
+    <sheet name="scoreCondition" sheetId="30" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8">#REF!</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
@@ -30,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="215">
   <si>
     <t>gacha</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -633,6 +638,262 @@
   </si>
   <si>
     <t>INT_scoreIndex5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonExp_3:1,items:chest_4:1,items:masterOfDefender_2:1,items:infantryAtkBonus_2:1,items:archerAtkBonus_2:1,items:cavalryAtkBonus_2:1,items:siegeAtkBonus_2:1,items:gemClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:sweepScroll:2,items:gemClass_2:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:gemClass_2:2,items:chest_1:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:speedup_2:20,items:vipActive_3:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:speedup_3:10,items:unitHpBonus_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonHp_2:1,items:troopSizeBonus_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonExp_2:2,items:chest_4:1,items:masterOfDefender_2:1,items:marchSpeedBonus_1:2,items:unitHpBonus_1:2,items:quarterMaster_1:2,items:gemClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonExp_2:1,items:chest_4:1,items:masterOfDefender_2:2,items:marchSpeedBonus_1:2,items:unitHpBonus_1:2,items:gemClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonExp_2:2,items:chest_4:1,items:masterOfDefender_2:1,items:marchSpeedBonus_1:2,items:unitHpBonus_1:2,items:quarterMaster_1:2,items:gemClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonExp_1:5,items:chest_4:1,items:masterOfDefender_2:2,items:marchSpeedBonus_1:2,items:gemClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonExp_1:2,items:chest_4:1,items:marchSpeedBonus_1:2,items:gemClass_2:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonExp_1:2,items:chest_4:1,items:marchSpeedBonus_1:2,items:gemClass_2:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonExp_1:2,items:chest_3:1,items:gemClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonExp_1:1,items:chest_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:chest_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:sweepScroll:4,items:speedup_2:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:gemClass_2:1,items:casinoTokenClass_1:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:gemClass_2:2,items:casinoTokenClass_1:3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:gemClass_2:2,items:casinoTokenClass_2:3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:gemClass_2:5,items:casinoTokenClass_2:3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonChest_3:2,items:coinClass_6:1,items:vipPoint_2:1,items:vipActive_3:3,items:unitHpBonus_2:1,items:marchSpeedBonus_2:1,items:speedup_4:5,items:gemClass_3:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonChest_3:2,items:coinClass_6:1,items:vipPoint_1:2,items:speedup_4:5,items:unitHpBonus_1:1,items:marchSpeedBonus_1:1,items:gemClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonChest_3:2,items:coinClass_5:1,items:vipPoint_1:1,items:speedup_4:1,items:unitHpBonus_1:1,items:gemClass_2:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonChest_2:4,items:coinClass_5:1,items:vipPoint_1:1,items:unitHpBonus_1:1,items:gemClass_2:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonChest_2:2,items:vipActive_3:2,items:unitHpBonus_1:1,items:gemClass_2:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonChest_2:1,items:vipActive_3:2,items:gemClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:vipActive_3:2,items:gemClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:gemClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:casinoTokenClass_1:1,items:sweepScroll:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:gemClass_2:2,items:chest_1:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:coinClass_5:1,items:speedup_4:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:vipPoint_1:1,items:unitHpBonus_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonHp_2:1,items:troopSizeBonus_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:heroBlood_2:1,items:troopSizeBonus_2:1,items:casinoTokenClass_2:5,items:stamina_2:2,items:sweepScroll:10,items:warSpeedupClass_2:10,items:restoreWall_2:2,items:gemClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:heroBlood_1:5,items:troopSizeBonus_2:1,items:casinoTokenClass_2:5,items:stamina_2:2,items:sweepScroll:10,items:warSpeedupClass_2:10,items:gemClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:heroBlood_1:5,items:troopSizeBonus_2:1,items:casinoTokenClass_2:5,items:stamina_2:2,items:sweepScroll:10,items:gemClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:heroBlood_1:2,items:troopSizeBonus_1:2,items:casinoTokenClass_2:5,items:sweepScroll:10,items:gemClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:heroBlood_1:2,items:troopSizeBonus_1:2,items:casinoTokenClass_2:5,items:sweepScroll:10,items:gemClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:heroBlood_1:2,items:troopSizeBonus_1:1,items:casinoTokenClass_2:2,items:gemClass_2:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:casinoTokenClass_2:1,items:gemClass_2:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:sweepScroll:2,items:gemClass_2:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:gemClass_2:2,items:vipActive_3:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:moveTheCity:1,items:vipPoint_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:chest_3:1,items:movingConstruction:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:coinClass_5:2,items:warSpeedupClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonExp_2:1,items:chest_4:1,items:masterOfDefender_2:2,items:marchSpeedBonus_1:2,items:unitHpBonus_1:2,items:gemClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonExp_1:1,items:chest_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:chest_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:heroBlood_1:1,items:casinoTokenClass_2:1,items:gemClass_2:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:sweepScroll:4,items:speedup_2:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:coinClass_4:2,items:sweepScroll:6</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:coinClass_5:1,items:dragonHp_1:10</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:coinClass_5:1,items:marchSpeedBonus_1:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonChest_3:2,items:coinClass_6:1,items:vipPoint_1:2,items:speedup_4:5,items:unitHpBonus_1:1,items:marchSpeedBonus_1:1,items:gemClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonChest_3:2,items:coinClass_5:1,items:vipPoint_1:1,items:speedup_4:1,items:unitHpBonus_1:1,items:gemClass_2:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonChest_2:4,items:coinClass_5:1,items:vipPoint_1:1,items:unitHpBonus_1:1,items:gemClass_2:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:gemClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:casinoTokenClass_1:1,items:speedup_2:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:casinoTokenClass_1:4,items:sweepScroll:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:chest_1:3,items:chest_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:chest_2:2,items:speedup_3:20</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:heroBlood_1:5,items:troopSizeBonus_2:1,items:casinoTokenClass_2:5,items:stamina_2:2,items:sweepScroll:10,items:warSpeedupClass_2:10,items:gemClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:heroBlood_1:1,items:casinoTokenClass_2:1,items:gemClass_2:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:gemClass_2:1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -735,7 +996,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -776,8 +1037,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="754">
+  <cellStyleXfs count="756">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -1536,8 +1810,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1575,8 +1851,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="754">
+  <cellStyles count="756">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1956,6 +2235,7 @@
     <cellStyle name="超链接" xfId="748" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="750" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="752" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="754" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2328,6 +2608,7 @@
     <cellStyle name="访问过的超链接" xfId="749" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="751" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="753" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="755" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2779,7 +3060,1054 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE75"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A7" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="19.1640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="26" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="7" customWidth="1"/>
+    <col min="4" max="5" width="16.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="7" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="7" customWidth="1"/>
+    <col min="8" max="8" width="15" style="7" customWidth="1"/>
+    <col min="9" max="10" width="16" style="7" customWidth="1"/>
+    <col min="11" max="15" width="20.6640625" style="7"/>
+    <col min="16" max="16" width="17.5" style="7" customWidth="1"/>
+    <col min="17" max="17" width="17.33203125" style="7" customWidth="1"/>
+    <col min="18" max="18" width="16" style="7" customWidth="1"/>
+    <col min="19" max="19" width="16.33203125" style="7" customWidth="1"/>
+    <col min="20" max="20" width="15.6640625" style="7" customWidth="1"/>
+    <col min="21" max="21" width="14.5" style="7" customWidth="1"/>
+    <col min="22" max="22" width="20.6640625" style="7"/>
+    <col min="23" max="23" width="17.6640625" style="7" customWidth="1"/>
+    <col min="24" max="16384" width="20.6640625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" s="8" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE1" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" ht="114" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="10">
+        <v>48</v>
+      </c>
+      <c r="D2" s="10">
+        <v>48</v>
+      </c>
+      <c r="E2" s="5">
+        <v>100</v>
+      </c>
+      <c r="F2" s="7">
+        <v>5</v>
+      </c>
+      <c r="G2" s="7">
+        <v>25</v>
+      </c>
+      <c r="H2" s="7">
+        <v>50</v>
+      </c>
+      <c r="I2" s="7">
+        <v>75</v>
+      </c>
+      <c r="J2" s="7">
+        <v>100</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P2" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>2</v>
+      </c>
+      <c r="R2" s="7">
+        <v>3</v>
+      </c>
+      <c r="S2" s="7">
+        <v>4</v>
+      </c>
+      <c r="T2" s="7">
+        <v>11</v>
+      </c>
+      <c r="U2" s="7">
+        <v>26</v>
+      </c>
+      <c r="V2" s="7">
+        <v>51</v>
+      </c>
+      <c r="W2" s="7">
+        <v>76</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE2" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" ht="114" customHeight="1">
+      <c r="A3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="10">
+        <v>48</v>
+      </c>
+      <c r="D3" s="10">
+        <v>48</v>
+      </c>
+      <c r="E3" s="5">
+        <v>100</v>
+      </c>
+      <c r="F3" s="11">
+        <v>10000</v>
+      </c>
+      <c r="G3" s="11">
+        <v>50000</v>
+      </c>
+      <c r="H3" s="11">
+        <v>150000</v>
+      </c>
+      <c r="I3" s="11">
+        <v>500000</v>
+      </c>
+      <c r="J3" s="11">
+        <v>2000000</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P3" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>2</v>
+      </c>
+      <c r="R3" s="7">
+        <v>3</v>
+      </c>
+      <c r="S3" s="7">
+        <v>4</v>
+      </c>
+      <c r="T3" s="7">
+        <v>11</v>
+      </c>
+      <c r="U3" s="7">
+        <v>26</v>
+      </c>
+      <c r="V3" s="7">
+        <v>51</v>
+      </c>
+      <c r="W3" s="7">
+        <v>76</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z3" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC3" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE3" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" ht="114" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="10">
+        <v>48</v>
+      </c>
+      <c r="D4" s="10">
+        <v>48</v>
+      </c>
+      <c r="E4" s="5">
+        <v>100</v>
+      </c>
+      <c r="F4" s="7">
+        <v>50</v>
+      </c>
+      <c r="G4" s="7">
+        <v>100</v>
+      </c>
+      <c r="H4" s="7">
+        <v>200</v>
+      </c>
+      <c r="I4" s="7">
+        <v>800</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1600</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P4" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>2</v>
+      </c>
+      <c r="R4" s="7">
+        <v>3</v>
+      </c>
+      <c r="S4" s="7">
+        <v>4</v>
+      </c>
+      <c r="T4" s="7">
+        <v>11</v>
+      </c>
+      <c r="U4" s="7">
+        <v>26</v>
+      </c>
+      <c r="V4" s="7">
+        <v>51</v>
+      </c>
+      <c r="W4" s="7">
+        <v>76</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE4" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="114" customHeight="1">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="10">
+        <v>48</v>
+      </c>
+      <c r="D5" s="10">
+        <v>48</v>
+      </c>
+      <c r="E5" s="5">
+        <v>100</v>
+      </c>
+      <c r="F5" s="7">
+        <v>25</v>
+      </c>
+      <c r="G5" s="7">
+        <v>75</v>
+      </c>
+      <c r="H5" s="7">
+        <v>150</v>
+      </c>
+      <c r="I5" s="7">
+        <v>450</v>
+      </c>
+      <c r="J5" s="7">
+        <v>900</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P5" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>2</v>
+      </c>
+      <c r="R5" s="7">
+        <v>3</v>
+      </c>
+      <c r="S5" s="7">
+        <v>4</v>
+      </c>
+      <c r="T5" s="7">
+        <v>11</v>
+      </c>
+      <c r="U5" s="7">
+        <v>26</v>
+      </c>
+      <c r="V5" s="7">
+        <v>51</v>
+      </c>
+      <c r="W5" s="7">
+        <v>76</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y5" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z5" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE5" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" ht="114" customHeight="1">
+      <c r="A6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="10">
+        <v>48</v>
+      </c>
+      <c r="D6" s="10">
+        <v>48</v>
+      </c>
+      <c r="E6" s="5">
+        <v>100</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G6" s="7">
+        <v>3000</v>
+      </c>
+      <c r="H6" s="7">
+        <v>9000</v>
+      </c>
+      <c r="I6" s="7">
+        <v>30000</v>
+      </c>
+      <c r="J6" s="7">
+        <v>100000</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P6" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>2</v>
+      </c>
+      <c r="R6" s="7">
+        <v>3</v>
+      </c>
+      <c r="S6" s="7">
+        <v>4</v>
+      </c>
+      <c r="T6" s="7">
+        <v>11</v>
+      </c>
+      <c r="U6" s="7">
+        <v>26</v>
+      </c>
+      <c r="V6" s="7">
+        <v>51</v>
+      </c>
+      <c r="W6" s="7">
+        <v>76</v>
+      </c>
+      <c r="X6" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y6" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z6" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA6" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB6" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC6" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD6" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE6" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" ht="114" customHeight="1">
+      <c r="A7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="10">
+        <v>48</v>
+      </c>
+      <c r="D7" s="10">
+        <v>48</v>
+      </c>
+      <c r="E7" s="5">
+        <v>100</v>
+      </c>
+      <c r="F7" s="7">
+        <v>500</v>
+      </c>
+      <c r="G7" s="7">
+        <v>2500</v>
+      </c>
+      <c r="H7" s="7">
+        <v>10000</v>
+      </c>
+      <c r="I7" s="7">
+        <v>50000</v>
+      </c>
+      <c r="J7" s="7">
+        <v>100000</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P7" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>2</v>
+      </c>
+      <c r="R7" s="7">
+        <v>3</v>
+      </c>
+      <c r="S7" s="7">
+        <v>4</v>
+      </c>
+      <c r="T7" s="7">
+        <v>11</v>
+      </c>
+      <c r="U7" s="7">
+        <v>26</v>
+      </c>
+      <c r="V7" s="7">
+        <v>51</v>
+      </c>
+      <c r="W7" s="7">
+        <v>76</v>
+      </c>
+      <c r="X7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD7" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE7" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" ht="20" customHeight="1">
+      <c r="C8" s="12"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:31" ht="20" customHeight="1">
+      <c r="C9" s="12"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:31" ht="20" customHeight="1">
+      <c r="C10" s="12"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:31" ht="20" customHeight="1">
+      <c r="C11" s="10"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:31" ht="20" customHeight="1">
+      <c r="C12" s="10"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:31" ht="20" customHeight="1">
+      <c r="C13" s="10"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:31" ht="20" customHeight="1">
+      <c r="C14" s="12"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:31" ht="20" customHeight="1">
+      <c r="C15" s="10"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:31" ht="20" customHeight="1">
+      <c r="C16" s="10"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="3:5" ht="20" customHeight="1">
+      <c r="C17" s="10"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="3:5" ht="20" customHeight="1">
+      <c r="C18" s="12"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="3:5" ht="20" customHeight="1">
+      <c r="C19" s="12"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="3:5" ht="20" customHeight="1">
+      <c r="C20" s="12"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="3:5" ht="20" customHeight="1">
+      <c r="C21" s="10"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="3:5" ht="20" customHeight="1">
+      <c r="C22" s="10"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="3:5" ht="20" customHeight="1">
+      <c r="C23" s="10"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="3:5" ht="20" customHeight="1">
+      <c r="C24" s="12"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="3:5" ht="20" customHeight="1">
+      <c r="C25" s="10"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="3:5" ht="20" customHeight="1">
+      <c r="C26" s="10"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="3:5" ht="20" customHeight="1">
+      <c r="C27" s="10"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="3:5" ht="20" customHeight="1">
+      <c r="C28" s="12"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="3:5" ht="20" customHeight="1">
+      <c r="C29" s="12"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="3:5" ht="20" customHeight="1">
+      <c r="C30" s="12"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="3:5" ht="20" customHeight="1">
+      <c r="C31" s="12"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="3:5" ht="20" customHeight="1">
+      <c r="C32" s="10"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="3:5" ht="20" customHeight="1">
+      <c r="C33" s="10"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="3:5" ht="20" customHeight="1">
+      <c r="C34" s="10"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="3:5" ht="20" customHeight="1">
+      <c r="C35" s="10"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="3:5" ht="20" customHeight="1">
+      <c r="C36" s="10"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="3:5" ht="20" customHeight="1">
+      <c r="C37" s="12"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="3:5" ht="20" customHeight="1">
+      <c r="C38" s="10"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" spans="3:5" ht="20" customHeight="1">
+      <c r="C39" s="10"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" spans="3:5" ht="20" customHeight="1">
+      <c r="C40" s="10"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+    </row>
+    <row r="41" spans="3:5" ht="20" customHeight="1">
+      <c r="C41" s="10"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+    </row>
+    <row r="42" spans="3:5" ht="20" customHeight="1">
+      <c r="C42" s="12"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43" spans="3:5" ht="20" customHeight="1">
+      <c r="C43" s="10"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+    </row>
+    <row r="44" spans="3:5" ht="20" customHeight="1">
+      <c r="C44" s="10"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+    </row>
+    <row r="45" spans="3:5" ht="20" customHeight="1">
+      <c r="C45" s="10"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+    </row>
+    <row r="46" spans="3:5" ht="20" customHeight="1">
+      <c r="C46" s="10"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+    </row>
+    <row r="47" spans="3:5" ht="20" customHeight="1">
+      <c r="C47" s="12"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+    </row>
+    <row r="48" spans="3:5" ht="20" customHeight="1">
+      <c r="C48" s="10"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+    </row>
+    <row r="49" spans="3:5" ht="20" customHeight="1">
+      <c r="C49" s="10"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+    </row>
+    <row r="50" spans="3:5" ht="20" customHeight="1">
+      <c r="C50" s="10"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+    </row>
+    <row r="51" spans="3:5" ht="20" customHeight="1">
+      <c r="C51" s="10"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+    </row>
+    <row r="52" spans="3:5" ht="20" customHeight="1">
+      <c r="C52" s="10"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+    </row>
+    <row r="53" spans="3:5" ht="20" customHeight="1">
+      <c r="C53" s="10"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+    </row>
+    <row r="54" spans="3:5" ht="20" customHeight="1">
+      <c r="C54" s="10"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+    </row>
+    <row r="55" spans="3:5" ht="20" customHeight="1">
+      <c r="C55" s="10"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+    </row>
+    <row r="56" spans="3:5" ht="20" customHeight="1">
+      <c r="C56" s="10"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+    </row>
+    <row r="57" spans="3:5" ht="20" customHeight="1">
+      <c r="C57" s="12"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+    </row>
+    <row r="58" spans="3:5" ht="20" customHeight="1">
+      <c r="C58" s="10"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+    </row>
+    <row r="59" spans="3:5" ht="20" customHeight="1">
+      <c r="C59" s="12"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+    </row>
+    <row r="60" spans="3:5" ht="20" customHeight="1">
+      <c r="C60" s="12"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+    </row>
+    <row r="61" spans="3:5" ht="20" customHeight="1">
+      <c r="C61" s="12"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+    </row>
+    <row r="62" spans="3:5" ht="20" customHeight="1">
+      <c r="C62" s="10"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+    </row>
+    <row r="63" spans="3:5" ht="20" customHeight="1">
+      <c r="C63" s="10"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+    </row>
+    <row r="64" spans="3:5" ht="20" customHeight="1">
+      <c r="C64" s="10"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+    </row>
+    <row r="65" spans="3:5" ht="20" customHeight="1">
+      <c r="C65" s="10"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+    </row>
+    <row r="66" spans="3:5" ht="20" customHeight="1">
+      <c r="C66" s="10"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+    </row>
+    <row r="67" spans="3:5" ht="20" customHeight="1">
+      <c r="C67" s="10"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+    </row>
+    <row r="68" spans="3:5" ht="20" customHeight="1">
+      <c r="C68" s="10"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+    </row>
+    <row r="69" spans="3:5" ht="20" customHeight="1">
+      <c r="C69" s="10"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+    </row>
+    <row r="70" spans="3:5" ht="20" customHeight="1">
+      <c r="C70" s="10"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+    </row>
+    <row r="71" spans="3:5" ht="20" customHeight="1">
+      <c r="C71" s="10"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+    </row>
+    <row r="72" spans="3:5" ht="20" customHeight="1">
+      <c r="C72" s="10"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+    </row>
+    <row r="73" spans="3:5" ht="20" customHeight="1">
+      <c r="C73" s="10"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+    </row>
+    <row r="74" spans="3:5" ht="20" customHeight="1">
+      <c r="C74" s="10"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+    </row>
+    <row r="75" spans="3:5" ht="20" customHeight="1">
+      <c r="C75" s="10"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE75"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A6" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -2908,10 +4236,10 @@
         <v>59</v>
       </c>
       <c r="C2" s="10">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="D2" s="10">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="E2" s="5">
         <v>100</v>
@@ -2932,19 +4260,19 @@
         <v>100</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>92</v>
+        <v>152</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>96</v>
+        <v>156</v>
       </c>
       <c r="P2" s="7">
         <v>1</v>
@@ -2971,28 +4299,28 @@
         <v>76</v>
       </c>
       <c r="X2" s="7" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="Y2" s="7" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="Z2" s="7" t="s">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="AA2" s="7" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="AD2" s="7" t="s">
-        <v>115</v>
+        <v>164</v>
       </c>
       <c r="AE2" s="7" t="s">
-        <v>116</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="114" customHeight="1">
@@ -3003,10 +4331,10 @@
         <v>60</v>
       </c>
       <c r="C3" s="10">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="D3" s="10">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="E3" s="5">
         <v>100</v>
@@ -3027,19 +4355,19 @@
         <v>2000000</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>82</v>
+        <v>166</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>170</v>
       </c>
       <c r="P3" s="7">
         <v>1</v>
@@ -3065,29 +4393,29 @@
       <c r="W3" s="7">
         <v>76</v>
       </c>
-      <c r="X3" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y3" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA3" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB3" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC3" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD3" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE3" s="7" t="s">
-        <v>51</v>
+      <c r="X3" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y3" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z3" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA3" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB3" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC3" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="AD3" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE3" s="13" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="114" customHeight="1">
@@ -3098,10 +4426,10 @@
         <v>61</v>
       </c>
       <c r="C4" s="10">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="D4" s="10">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="E4" s="5">
         <v>100</v>
@@ -3122,19 +4450,19 @@
         <v>1600</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>84</v>
+        <v>179</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>183</v>
       </c>
       <c r="P4" s="7">
         <v>1</v>
@@ -3160,29 +4488,29 @@
       <c r="W4" s="7">
         <v>76</v>
       </c>
-      <c r="X4" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y4" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z4" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA4" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB4" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC4" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="AD4" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="AE4" s="7" t="s">
-        <v>130</v>
+      <c r="X4" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y4" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z4" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA4" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB4" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC4" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="AD4" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE4" s="13" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="114" customHeight="1">
@@ -3193,10 +4521,10 @@
         <v>62</v>
       </c>
       <c r="C5" s="10">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="D5" s="10">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="E5" s="5">
         <v>100</v>
@@ -3217,19 +4545,19 @@
         <v>900</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>87</v>
+        <v>191</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>195</v>
       </c>
       <c r="P5" s="7">
         <v>1</v>
@@ -3255,29 +4583,29 @@
       <c r="W5" s="7">
         <v>76</v>
       </c>
-      <c r="X5" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y5" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z5" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA5" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB5" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC5" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="AD5" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE5" s="7" t="s">
-        <v>136</v>
+      <c r="X5" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y5" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z5" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA5" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB5" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC5" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="AD5" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="AE5" s="13" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="114" customHeight="1">
@@ -3288,10 +4616,10 @@
         <v>63</v>
       </c>
       <c r="C6" s="10">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="D6" s="10">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="E6" s="5">
         <v>100</v>
@@ -3312,19 +4640,19 @@
         <v>100000</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>106</v>
+        <v>200</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>203</v>
       </c>
       <c r="P6" s="7">
         <v>1</v>
@@ -3350,29 +4678,29 @@
       <c r="W6" s="7">
         <v>76</v>
       </c>
-      <c r="X6" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y6" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z6" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="AA6" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="AB6" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="AC6" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD6" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="AE6" s="7" t="s">
-        <v>142</v>
+      <c r="X6" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y6" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z6" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA6" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB6" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC6" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="AD6" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE6" s="13" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:31" ht="114" customHeight="1">
@@ -3383,10 +4711,10 @@
         <v>64</v>
       </c>
       <c r="C7" s="10">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="D7" s="10">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="E7" s="5">
         <v>100</v>
@@ -3407,19 +4735,19 @@
         <v>100000</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>91</v>
+        <v>208</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>211</v>
       </c>
       <c r="P7" s="7">
         <v>1</v>
@@ -3445,60 +4773,132 @@
       <c r="W7" s="7">
         <v>76</v>
       </c>
-      <c r="X7" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y7" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z7" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA7" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB7" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC7" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD7" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE7" s="7" t="s">
-        <v>56</v>
+      <c r="X7" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y7" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z7" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA7" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB7" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC7" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="AD7" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE7" s="13" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="20" customHeight="1">
       <c r="C8" s="12"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="13"/>
     </row>
     <row r="9" spans="1:31" ht="20" customHeight="1">
       <c r="C9" s="12"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
     </row>
     <row r="10" spans="1:31" ht="20" customHeight="1">
       <c r="C10" s="12"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="13"/>
     </row>
     <row r="11" spans="1:31" ht="20" customHeight="1">
       <c r="C11" s="10"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="13"/>
     </row>
     <row r="12" spans="1:31" ht="20" customHeight="1">
       <c r="C12" s="10"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="13"/>
     </row>
     <row r="13" spans="1:31" ht="20" customHeight="1">
       <c r="C13" s="10"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="13"/>
     </row>
     <row r="14" spans="1:31" ht="20" customHeight="1">
       <c r="C14" s="12"/>
@@ -3822,12 +5222,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView showRuler="0" topLeftCell="A8" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>

--- a/Dragonfall/gameData/shared/ScheduleActivities.xlsx
+++ b/Dragonfall/gameData/shared/ScheduleActivities.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="760" windowWidth="25600" windowHeight="16060" tabRatio="281" activeTab="1"/>
+    <workbookView xWindow="31620" yWindow="-2940" windowWidth="25600" windowHeight="16060" tabRatio="281" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="type" sheetId="24" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="216">
   <si>
     <t>gacha</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -641,10 +641,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>items:dragonExp_3:1,items:chest_4:1,items:masterOfDefender_2:1,items:infantryAtkBonus_2:1,items:archerAtkBonus_2:1,items:cavalryAtkBonus_2:1,items:siegeAtkBonus_2:1,items:gemClass_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>items:sweepScroll:2,items:gemClass_2:2</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -894,6 +890,14 @@
   </si>
   <si>
     <t>items:gemClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonExp_2:3,items:chest_4:1,items:masterOfDefender_2:1,items:infantryAtkBonus_2:1,items:archerAtkBonus_2:1,items:cavalryAtkBonus_2:1,items:siegeAtkBonus_2:1,items:gemClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonChest_3:2,items:coinClass_6:1,items:vipPoint_2:1,items:vipActive_3:3,items:unitHpBonus_2:1,items:marchSpeedBonus_2:1,items:speedup_4:5,items:gemClass_3:1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1051,7 +1055,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="756">
+  <cellStyleXfs count="760">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -1066,6 +1070,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1855,7 +1863,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="756">
+  <cellStyles count="760">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2236,6 +2244,8 @@
     <cellStyle name="超链接" xfId="750" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="752" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="754" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="756" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="758" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2609,6 +2619,8 @@
     <cellStyle name="访问过的超链接" xfId="751" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="753" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="755" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="757" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="759" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -3060,8 +3072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE75"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showRuler="0" topLeftCell="B4" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4107,8 +4119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE75"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A6" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="W1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4236,43 +4248,43 @@
         <v>59</v>
       </c>
       <c r="C2" s="10">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="D2" s="10">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="E2" s="5">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F2" s="7">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G2" s="7">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="H2" s="7">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="I2" s="7">
-        <v>75</v>
+        <v>750</v>
       </c>
       <c r="J2" s="7">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="K2" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="P2" s="7">
         <v>1</v>
@@ -4287,40 +4299,40 @@
         <v>4</v>
       </c>
       <c r="T2" s="7">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="U2" s="7">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="V2" s="7">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="W2" s="7">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="X2" s="7" t="s">
-        <v>151</v>
+        <v>214</v>
       </c>
       <c r="Y2" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA2" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="Z2" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="AA2" s="7" t="s">
-        <v>160</v>
-      </c>
       <c r="AB2" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC2" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="AC2" s="7" t="s">
+      <c r="AD2" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="AD2" s="7" t="s">
+      <c r="AE2" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="AE2" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="114" customHeight="1">
@@ -4331,43 +4343,43 @@
         <v>60</v>
       </c>
       <c r="C3" s="10">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="D3" s="10">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="E3" s="5">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F3" s="11">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="G3" s="11">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="H3" s="11">
-        <v>150000</v>
+        <v>1500000</v>
       </c>
       <c r="I3" s="11">
-        <v>500000</v>
+        <v>5000000</v>
       </c>
       <c r="J3" s="11">
-        <v>2000000</v>
+        <v>50000000</v>
       </c>
       <c r="K3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L3" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="M3" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="N3" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="O3" s="13" t="s">
         <v>169</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>170</v>
       </c>
       <c r="P3" s="7">
         <v>1</v>
@@ -4382,40 +4394,40 @@
         <v>4</v>
       </c>
       <c r="T3" s="7">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="U3" s="7">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="V3" s="7">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="W3" s="7">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="X3" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y3" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="Y3" s="13" t="s">
+      <c r="Z3" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="Z3" s="13" t="s">
+      <c r="AA3" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="AA3" s="13" t="s">
+      <c r="AB3" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="AB3" s="13" t="s">
+      <c r="AC3" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="AC3" s="13" t="s">
+      <c r="AD3" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="AD3" s="13" t="s">
+      <c r="AE3" s="13" t="s">
         <v>177</v>
-      </c>
-      <c r="AE3" s="13" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="114" customHeight="1">
@@ -4426,43 +4438,43 @@
         <v>61</v>
       </c>
       <c r="C4" s="10">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="D4" s="10">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="E4" s="5">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F4" s="7">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="G4" s="7">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H4" s="7">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="I4" s="7">
-        <v>800</v>
+        <v>8000</v>
       </c>
       <c r="J4" s="7">
-        <v>1600</v>
+        <v>16000</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L4" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="M4" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="N4" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="O4" s="13" t="s">
         <v>182</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>183</v>
       </c>
       <c r="P4" s="7">
         <v>1</v>
@@ -4477,40 +4489,40 @@
         <v>4</v>
       </c>
       <c r="T4" s="7">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="U4" s="7">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="V4" s="7">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="W4" s="7">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="X4" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y4" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="Y4" s="13" t="s">
+      <c r="Z4" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="Z4" s="13" t="s">
-        <v>186</v>
-      </c>
       <c r="AA4" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB4" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="AB4" s="13" t="s">
+      <c r="AC4" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD4" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="AC4" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="AD4" s="13" t="s">
-        <v>190</v>
-      </c>
       <c r="AE4" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="114" customHeight="1">
@@ -4521,43 +4533,43 @@
         <v>62</v>
       </c>
       <c r="C5" s="10">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="D5" s="10">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="E5" s="5">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="G5" s="7">
-        <v>75</v>
+        <v>750</v>
       </c>
       <c r="H5" s="7">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="I5" s="7">
-        <v>450</v>
+        <v>4500</v>
       </c>
       <c r="J5" s="7">
-        <v>900</v>
+        <v>9000</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L5" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="M5" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="N5" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="O5" s="13" t="s">
         <v>194</v>
-      </c>
-      <c r="O5" s="13" t="s">
-        <v>195</v>
       </c>
       <c r="P5" s="7">
         <v>1</v>
@@ -4572,40 +4584,40 @@
         <v>4</v>
       </c>
       <c r="T5" s="7">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="U5" s="7">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="V5" s="7">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="W5" s="7">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="X5" s="13" t="s">
-        <v>151</v>
+        <v>214</v>
       </c>
       <c r="Y5" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Z5" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA5" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB5" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC5" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD5" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="AA5" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="AB5" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="AC5" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="AD5" s="13" t="s">
+      <c r="AE5" s="13" t="s">
         <v>197</v>
-      </c>
-      <c r="AE5" s="13" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="114" customHeight="1">
@@ -4616,43 +4628,43 @@
         <v>63</v>
       </c>
       <c r="C6" s="10">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="D6" s="10">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="E6" s="5">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F6" s="7">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="G6" s="7">
-        <v>3000</v>
+        <v>30000</v>
       </c>
       <c r="H6" s="7">
-        <v>9000</v>
+        <v>90000</v>
       </c>
       <c r="I6" s="7">
-        <v>30000</v>
+        <v>300000</v>
       </c>
       <c r="J6" s="7">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="M6" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="L6" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="M6" s="13" t="s">
+      <c r="N6" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="O6" s="13" t="s">
         <v>202</v>
-      </c>
-      <c r="O6" s="13" t="s">
-        <v>203</v>
       </c>
       <c r="P6" s="7">
         <v>1</v>
@@ -4667,40 +4679,40 @@
         <v>4</v>
       </c>
       <c r="T6" s="7">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="U6" s="7">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="V6" s="7">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="W6" s="7">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="X6" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Y6" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z6" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="Z6" s="13" t="s">
+      <c r="AA6" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="AA6" s="13" t="s">
+      <c r="AB6" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC6" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD6" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="AE6" s="13" t="s">
         <v>206</v>
-      </c>
-      <c r="AB6" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="AC6" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="AD6" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE6" s="13" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:31" ht="114" customHeight="1">
@@ -4711,43 +4723,43 @@
         <v>64</v>
       </c>
       <c r="C7" s="10">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="D7" s="10">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="E7" s="5">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F7" s="7">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="G7" s="7">
-        <v>2500</v>
+        <v>25000</v>
       </c>
       <c r="H7" s="7">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="I7" s="7">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="J7" s="7">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="M7" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="L7" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="M7" s="13" t="s">
+      <c r="N7" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="N7" s="13" t="s">
+      <c r="O7" s="13" t="s">
         <v>210</v>
-      </c>
-      <c r="O7" s="13" t="s">
-        <v>211</v>
       </c>
       <c r="P7" s="7">
         <v>1</v>
@@ -4762,40 +4774,40 @@
         <v>4</v>
       </c>
       <c r="T7" s="7">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="U7" s="7">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="V7" s="7">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="W7" s="7">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="X7" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Y7" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z7" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA7" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB7" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="AC7" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="Z7" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="AA7" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="AB7" s="13" t="s">
+      <c r="AD7" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="AC7" s="13" t="s">
+      <c r="AE7" s="13" t="s">
         <v>213</v>
-      </c>
-      <c r="AD7" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="AE7" s="13" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="20" customHeight="1">

--- a/Dragonfall/gameData/shared/ScheduleActivities.xlsx
+++ b/Dragonfall/gameData/shared/ScheduleActivities.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="31620" yWindow="-2940" windowWidth="25600" windowHeight="16060" tabRatio="281" activeTab="1"/>
+    <workbookView xWindow="1280" yWindow="900" windowWidth="25040" windowHeight="15500" tabRatio="281" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="type" sheetId="24" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="214">
   <si>
     <t>gacha</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -717,7 +717,119 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>items:dragonChest_3:2,items:coinClass_6:1,items:vipPoint_2:1,items:vipActive_3:3,items:unitHpBonus_2:1,items:marchSpeedBonus_2:1,items:speedup_4:5,items:gemClass_3:2</t>
+    <t>items:dragonChest_2:4,items:coinClass_5:1,items:vipPoint_1:1,items:unitHpBonus_1:1,items:gemClass_2:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonChest_2:2,items:vipActive_3:2,items:unitHpBonus_1:1,items:gemClass_2:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonChest_2:1,items:vipActive_3:2,items:gemClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:vipActive_3:2,items:gemClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:gemClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:casinoTokenClass_1:1,items:sweepScroll:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:gemClass_2:2,items:chest_1:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:coinClass_5:1,items:speedup_4:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:vipPoint_1:1,items:unitHpBonus_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonHp_2:1,items:troopSizeBonus_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:heroBlood_2:1,items:troopSizeBonus_2:1,items:casinoTokenClass_2:5,items:stamina_2:2,items:sweepScroll:10,items:warSpeedupClass_2:10,items:restoreWall_2:2,items:gemClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:heroBlood_1:5,items:troopSizeBonus_2:1,items:casinoTokenClass_2:5,items:stamina_2:2,items:sweepScroll:10,items:warSpeedupClass_2:10,items:gemClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:heroBlood_1:2,items:troopSizeBonus_1:2,items:casinoTokenClass_2:5,items:sweepScroll:10,items:gemClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:heroBlood_1:2,items:troopSizeBonus_1:2,items:casinoTokenClass_2:5,items:sweepScroll:10,items:gemClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:heroBlood_1:2,items:troopSizeBonus_1:1,items:casinoTokenClass_2:2,items:gemClass_2:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:casinoTokenClass_2:1,items:gemClass_2:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:sweepScroll:2,items:gemClass_2:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:gemClass_2:2,items:vipActive_3:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:moveTheCity:1,items:vipPoint_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:chest_3:1,items:movingConstruction:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:coinClass_5:2,items:warSpeedupClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonExp_2:1,items:chest_4:1,items:masterOfDefender_2:2,items:marchSpeedBonus_1:2,items:unitHpBonus_1:2,items:gemClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonExp_1:1,items:chest_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:chest_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:heroBlood_1:1,items:casinoTokenClass_2:1,items:gemClass_2:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:sweepScroll:4,items:speedup_2:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:coinClass_4:2,items:sweepScroll:6</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:coinClass_5:1,items:dragonHp_1:10</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:coinClass_5:1,items:marchSpeedBonus_1:2</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -725,51 +837,27 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>items:dragonChest_3:2,items:coinClass_5:1,items:vipPoint_1:1,items:speedup_4:1,items:unitHpBonus_1:1,items:gemClass_2:5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>items:dragonChest_2:4,items:coinClass_5:1,items:vipPoint_1:1,items:unitHpBonus_1:1,items:gemClass_2:5</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>items:dragonChest_2:2,items:vipActive_3:2,items:unitHpBonus_1:1,items:gemClass_2:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:dragonChest_2:1,items:vipActive_3:2,items:gemClass_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:vipActive_3:2,items:gemClass_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>items:gemClass_2:1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>items:casinoTokenClass_1:1,items:sweepScroll:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:gemClass_2:2,items:chest_1:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:coinClass_5:1,items:speedup_4:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:vipPoint_1:1,items:unitHpBonus_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:dragonHp_2:1,items:troopSizeBonus_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:heroBlood_2:1,items:troopSizeBonus_2:1,items:casinoTokenClass_2:5,items:stamina_2:2,items:sweepScroll:10,items:warSpeedupClass_2:10,items:restoreWall_2:2,items:gemClass_3:1</t>
+    <t>items:casinoTokenClass_1:1,items:speedup_2:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:casinoTokenClass_1:4,items:sweepScroll:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:chest_1:3,items:chest_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:chest_2:2,items:speedup_3:20</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -777,127 +865,31 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>items:heroBlood_1:5,items:troopSizeBonus_2:1,items:casinoTokenClass_2:5,items:stamina_2:2,items:sweepScroll:10,items:gemClass_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:heroBlood_1:2,items:troopSizeBonus_1:2,items:casinoTokenClass_2:5,items:sweepScroll:10,items:gemClass_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:heroBlood_1:2,items:troopSizeBonus_1:2,items:casinoTokenClass_2:5,items:sweepScroll:10,items:gemClass_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:heroBlood_1:2,items:troopSizeBonus_1:1,items:casinoTokenClass_2:2,items:gemClass_2:5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:casinoTokenClass_2:1,items:gemClass_2:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:sweepScroll:2,items:gemClass_2:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:gemClass_2:2,items:vipActive_3:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:moveTheCity:1,items:vipPoint_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:chest_3:1,items:movingConstruction:5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:coinClass_5:2,items:warSpeedupClass_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:dragonExp_2:1,items:chest_4:1,items:masterOfDefender_2:2,items:marchSpeedBonus_1:2,items:unitHpBonus_1:2,items:gemClass_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:dragonExp_1:1,items:chest_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:chest_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>items:heroBlood_1:1,items:casinoTokenClass_2:1,items:gemClass_2:5</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>items:sweepScroll:4,items:speedup_2:5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:coinClass_4:2,items:sweepScroll:6</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:coinClass_5:1,items:dragonHp_1:10</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:coinClass_5:1,items:marchSpeedBonus_1:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:dragonChest_3:2,items:coinClass_6:1,items:vipPoint_1:2,items:speedup_4:5,items:unitHpBonus_1:1,items:marchSpeedBonus_1:1,items:gemClass_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:dragonChest_3:2,items:coinClass_5:1,items:vipPoint_1:1,items:speedup_4:1,items:unitHpBonus_1:1,items:gemClass_2:5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:dragonChest_2:4,items:coinClass_5:1,items:vipPoint_1:1,items:unitHpBonus_1:1,items:gemClass_2:5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>items:gemClass_2:1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>items:casinoTokenClass_1:1,items:speedup_2:5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:casinoTokenClass_1:4,items:sweepScroll:5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:chest_1:3,items:chest_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:chest_2:2,items:speedup_3:20</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:heroBlood_1:5,items:troopSizeBonus_2:1,items:casinoTokenClass_2:5,items:stamina_2:2,items:sweepScroll:10,items:warSpeedupClass_2:10,items:gemClass_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:heroBlood_1:1,items:casinoTokenClass_2:1,items:gemClass_2:5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:gemClass_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>items:dragonExp_2:3,items:chest_4:1,items:masterOfDefender_2:1,items:infantryAtkBonus_2:1,items:archerAtkBonus_2:1,items:cavalryAtkBonus_2:1,items:siegeAtkBonus_2:1,items:gemClass_3:1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>items:dragonChest_3:2,items:coinClass_6:1,items:vipPoint_2:1,items:vipActive_3:3,items:unitHpBonus_2:1,items:marchSpeedBonus_2:1,items:speedup_4:5,items:gemClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonChest_3:1,items:coinClass_5:1,items:vipPoint_1:1,items:speedup_4:1,items:unitHpBonus_1:1,items:gemClass_2:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonChest_3:1,items:coinClass_6:1,items:vipPoint_1:2,items:speedup_4:5,items:unitHpBonus_1:1,items:marchSpeedBonus_1:1,items:gemClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:heroBlood_1:3,items:troopSizeBonus_2:1,items:casinoTokenClass_2:5,items:stamina_2:2,items:sweepScroll:10,items:gemClass_3:1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1869,8 +1861,386 @@
     <cellStyle name="Normal_" xfId="3"/>
     <cellStyle name="Pourcentage" xfId="4"/>
     <cellStyle name="Standard_game" xfId="5"/>
+    <cellStyle name="표준_chapter_01" xfId="9"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="标题 1 1" xfId="6"/>
     <cellStyle name="标题 2 1" xfId="7"/>
+    <cellStyle name="解释性文本" xfId="8"/>
+    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="211" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="213" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="217" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="219" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="227" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="229" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="239" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="241" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="243" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="245" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="247" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="249" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="251" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="253" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="255" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="257" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="259" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="261" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="263" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="265" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="267" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="269" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="271" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="273" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="275" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="277" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="279" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="281" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="283" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="285" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="287" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="289" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="291" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="293" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="295" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="297" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="299" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="301" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="303" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="305" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="307" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="309" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="311" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="313" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="315" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="317" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="319" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="321" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="323" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="325" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="327" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="329" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="331" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="333" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="335" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="337" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="339" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="341" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="343" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="345" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="347" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="349" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="351" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="353" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="355" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="357" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="359" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="361" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="363" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="365" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="367" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="369" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="371" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="373" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="375" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="377" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="379" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="381" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="383" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="385" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="387" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="389" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="391" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="393" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="395" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="397" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="399" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="401" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="403" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="405" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="407" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="409" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="411" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="413" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="415" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="417" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="419" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="421" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="423" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="425" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="427" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="429" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="431" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="433" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="435" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="437" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="439" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="441" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="443" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="445" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="447" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="449" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="451" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="453" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="455" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="457" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="459" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="461" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="463" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="465" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="467" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="469" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="471" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="473" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="475" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="477" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="479" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="481" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="483" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="485" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="487" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="489" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="491" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="493" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="495" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="497" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="499" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="501" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="503" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="505" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="507" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="509" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="511" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="513" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="515" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="517" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="519" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="521" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="523" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="525" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="527" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="529" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="531" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="533" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="535" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="537" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="539" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="541" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="543" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="545" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="547" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="549" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="551" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="553" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="555" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="557" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="559" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="561" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="563" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="565" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="567" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="569" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="571" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="573" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="575" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="577" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="579" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="581" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="583" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="585" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="587" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="589" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="591" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="593" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="595" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="597" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="599" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="601" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="603" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="605" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="607" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="609" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="611" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="613" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="615" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="617" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="619" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="621" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="623" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="625" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="627" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="629" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="631" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="633" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="635" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="637" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="639" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="641" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="643" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="645" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="647" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="649" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="651" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="653" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="655" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="657" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="659" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="661" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="663" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="665" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="667" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="669" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="671" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="673" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="675" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="677" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="679" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="681" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="683" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="685" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="687" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="689" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="691" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="693" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="695" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="697" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="699" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="701" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="703" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="705" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="707" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="709" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="711" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="713" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="715" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="717" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="719" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="721" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="723" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="725" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="727" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="729" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="731" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="733" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="735" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="737" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="739" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="741" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="743" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="745" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="747" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="749" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="751" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="753" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="755" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="757" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="759" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
@@ -2246,384 +2616,6 @@
     <cellStyle name="超链接" xfId="754" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="756" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="758" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="79" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="81" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="83" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="85" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="87" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="89" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="91" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="93" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="95" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="97" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="99" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="101" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="103" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="105" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="107" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="109" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="111" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="113" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="115" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="117" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="119" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="121" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="123" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="125" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="127" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="129" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="131" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="133" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="135" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="137" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="139" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="141" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="143" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="145" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="147" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="149" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="151" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="153" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="155" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="157" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="159" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="161" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="163" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="165" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="167" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="169" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="171" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="173" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="175" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="177" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="179" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="181" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="183" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="185" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="187" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="189" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="191" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="193" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="195" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="197" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="199" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="201" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="203" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="205" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="207" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="209" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="211" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="213" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="215" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="217" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="219" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="221" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="223" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="225" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="227" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="229" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="231" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="233" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="235" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="237" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="239" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="241" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="243" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="245" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="247" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="249" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="251" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="253" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="255" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="257" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="259" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="261" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="263" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="265" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="267" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="269" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="271" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="273" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="275" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="277" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="279" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="281" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="283" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="285" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="287" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="289" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="291" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="293" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="295" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="297" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="299" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="301" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="303" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="305" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="307" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="309" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="311" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="313" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="315" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="317" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="319" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="321" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="323" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="325" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="327" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="329" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="331" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="333" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="335" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="337" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="339" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="341" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="343" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="345" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="347" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="349" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="351" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="353" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="355" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="357" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="359" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="361" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="363" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="365" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="367" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="369" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="371" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="373" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="375" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="377" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="379" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="381" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="383" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="385" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="387" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="389" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="391" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="393" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="395" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="397" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="399" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="401" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="403" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="405" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="407" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="409" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="411" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="413" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="415" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="417" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="419" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="421" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="423" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="425" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="427" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="429" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="431" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="433" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="435" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="437" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="439" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="441" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="443" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="445" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="447" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="449" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="451" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="453" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="455" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="457" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="459" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="461" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="463" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="465" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="467" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="469" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="471" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="473" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="475" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="477" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="479" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="481" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="483" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="485" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="487" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="489" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="491" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="493" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="495" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="497" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="499" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="501" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="503" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="505" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="507" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="509" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="511" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="513" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="515" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="517" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="519" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="521" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="523" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="525" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="527" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="529" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="531" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="533" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="535" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="537" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="539" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="541" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="543" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="545" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="547" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="549" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="551" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="553" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="555" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="557" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="559" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="561" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="563" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="565" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="567" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="569" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="571" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="573" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="575" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="577" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="579" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="581" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="583" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="585" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="587" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="589" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="591" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="593" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="595" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="597" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="599" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="601" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="603" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="605" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="607" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="609" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="611" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="613" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="615" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="617" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="619" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="621" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="623" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="625" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="627" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="629" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="631" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="633" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="635" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="637" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="639" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="641" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="643" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="645" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="647" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="649" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="651" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="653" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="655" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="657" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="659" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="661" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="663" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="665" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="667" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="669" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="671" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="673" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="675" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="677" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="679" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="681" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="683" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="685" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="687" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="689" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="691" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="693" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="695" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="697" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="699" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="701" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="703" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="705" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="707" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="709" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="711" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="713" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="715" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="717" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="719" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="721" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="723" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="725" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="727" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="729" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="731" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="733" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="735" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="737" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="739" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="741" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="743" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="745" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="747" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="749" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="751" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="753" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="755" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="757" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="759" builtinId="9" hidden="1"/>
-    <cellStyle name="解释性文本" xfId="8"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
-    <cellStyle name="표준_chapter_01" xfId="9"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -3072,7 +3064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE75"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="B4" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView topLeftCell="B4" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -4119,8 +4111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE75"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="W1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4311,7 +4303,7 @@
         <v>14</v>
       </c>
       <c r="X2" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="Y2" s="7" t="s">
         <v>158</v>
@@ -4406,28 +4398,28 @@
         <v>14</v>
       </c>
       <c r="X3" s="13" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="Y3" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z3" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA3" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB3" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="Z3" s="13" t="s">
+      <c r="AC3" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="AA3" s="13" t="s">
+      <c r="AD3" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="AB3" s="13" t="s">
+      <c r="AE3" s="13" t="s">
         <v>174</v>
-      </c>
-      <c r="AC3" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="AD3" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="AE3" s="13" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="114" customHeight="1">
@@ -4462,19 +4454,19 @@
         <v>16000</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="N4" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="O4" s="13" t="s">
         <v>179</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>182</v>
       </c>
       <c r="P4" s="7">
         <v>1</v>
@@ -4501,28 +4493,28 @@
         <v>14</v>
       </c>
       <c r="X4" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y4" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z4" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA4" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="Y4" s="13" t="s">
+      <c r="AB4" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="Z4" s="13" t="s">
+      <c r="AC4" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD4" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="AA4" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="AB4" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="AC4" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="AD4" s="13" t="s">
-        <v>189</v>
-      </c>
       <c r="AE4" s="13" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="114" customHeight="1">
@@ -4557,19 +4549,19 @@
         <v>9000</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="O5" s="13" t="s">
         <v>190</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="M5" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="O5" s="13" t="s">
-        <v>194</v>
       </c>
       <c r="P5" s="7">
         <v>1</v>
@@ -4596,13 +4588,13 @@
         <v>14</v>
       </c>
       <c r="X5" s="13" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="Y5" s="13" t="s">
         <v>156</v>
       </c>
       <c r="Z5" s="13" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AA5" s="13" t="s">
         <v>159</v>
@@ -4614,10 +4606,10 @@
         <v>162</v>
       </c>
       <c r="AD5" s="13" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="AE5" s="13" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="114" customHeight="1">
@@ -4652,19 +4644,19 @@
         <v>1000000</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="L6" s="13" t="s">
         <v>152</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="N6" s="13" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="O6" s="13" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="P6" s="7">
         <v>1</v>
@@ -4691,28 +4683,28 @@
         <v>14</v>
       </c>
       <c r="X6" s="13" t="s">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="Y6" s="13" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="Z6" s="13" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="AA6" s="13" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="AB6" s="13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AC6" s="13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AD6" s="13" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AE6" s="13" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:31" ht="114" customHeight="1">
@@ -4747,19 +4739,19 @@
         <v>1000000</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L7" s="13" t="s">
         <v>152</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="O7" s="13" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="P7" s="7">
         <v>1</v>
@@ -4786,28 +4778,28 @@
         <v>14</v>
       </c>
       <c r="X7" s="13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="Y7" s="13" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="Z7" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA7" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB7" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC7" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="AD7" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="AA7" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="AB7" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="AC7" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="AD7" s="13" t="s">
-        <v>189</v>
-      </c>
       <c r="AE7" s="13" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="20" customHeight="1">
@@ -5238,7 +5230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A8" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
